--- a/public/test.xlsx
+++ b/public/test.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="180" windowWidth="9300" windowHeight="4575" tabRatio="0"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="240" windowWidth="9300" windowHeight="4515" tabRatio="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$24</definedName>
+  </definedNames>
   <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="75">
   <si>
     <t>802-038</t>
   </si>
@@ -73,28 +76,181 @@
     <t>arrival</t>
   </si>
   <si>
+    <t>Фарфор</t>
+  </si>
+  <si>
+    <t>Новый год</t>
+  </si>
+  <si>
+    <t>Посуда для приготовления</t>
+  </si>
+  <si>
     <t>category</t>
   </si>
   <si>
-    <t>Сковороды</t>
-  </si>
-  <si>
-    <t>Кастрюли</t>
-  </si>
-  <si>
-    <t>Кружки</t>
-  </si>
-  <si>
-    <t>Тарелки</t>
-  </si>
-  <si>
-    <t>Вилки</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>category_description</t>
+  </si>
+  <si>
+    <t>820-088</t>
+  </si>
+  <si>
+    <t>MILLIMI Рождество Кружка 500мл, керамика</t>
+  </si>
+  <si>
+    <t>820-087</t>
+  </si>
+  <si>
+    <t>MILLIMI Рождество Салатник 19х6см, керамика</t>
+  </si>
+  <si>
+    <t>820-086</t>
+  </si>
+  <si>
+    <t>MILLIMI Рождество Тарелка 27х3см, керамика</t>
+  </si>
+  <si>
+    <t>Рождество</t>
+  </si>
+  <si>
+    <t>820-082</t>
+  </si>
+  <si>
+    <t>MILLIMI Волшебство Блюдо овальное 36х26,5х5см, костяной фарфор</t>
+  </si>
+  <si>
+    <t>820-085</t>
+  </si>
+  <si>
+    <t>MILLIMI Волшебство Салатник круглый 12,5х6см, костяной фарфор</t>
+  </si>
+  <si>
+    <t>820-084</t>
+  </si>
+  <si>
+    <t>MILLIMI Волшебство Салатник круглый 20х6,5см, костяной фарфор</t>
+  </si>
+  <si>
+    <t>822-199</t>
+  </si>
+  <si>
+    <t>VETTA Боньер Кастрюля 16х9,5см, 1,7л, со стекл. крышкой, индукция</t>
+  </si>
+  <si>
+    <t>822-200</t>
+  </si>
+  <si>
+    <t>VETTA Боньер Кастрюля 18х10,5см, 2,5л, со стекл. крышкой, индукция</t>
+  </si>
+  <si>
+    <t>822-201</t>
+  </si>
+  <si>
+    <t>VETTA Боньер Кастрюля 20х11,5см, 3,4л, со стекл. крышкой, индукция</t>
+  </si>
+  <si>
+    <t>824-422</t>
+  </si>
+  <si>
+    <t>MILLIMI Мозаика Сахарница 180мл, керамика</t>
+  </si>
+  <si>
+    <t>824-419</t>
+  </si>
+  <si>
+    <t>MILLIMI Мозаика Тарелка подстановочная 25см, керамика</t>
+  </si>
+  <si>
+    <t>824-421</t>
+  </si>
+  <si>
+    <t>MILLIMI Мозаика Чайник заварочный 850мл, керамика</t>
+  </si>
+  <si>
+    <t>824-441</t>
+  </si>
+  <si>
+    <t>MILLIMI Ранчо Банка для соли 300мл, 15,5х9х7,5см, керамика</t>
+  </si>
+  <si>
+    <t>824-442</t>
+  </si>
+  <si>
+    <t>MILLIMI Ранчо Банка для хранения 160мл, 6х6х12см, керамика</t>
+  </si>
+  <si>
+    <t>824-443</t>
+  </si>
+  <si>
+    <t>MILLIMI Ранчо Банка для хранения 800мл, 11х11х17,5см, керамика</t>
+  </si>
+  <si>
+    <t>846-559</t>
+  </si>
+  <si>
+    <t>SATOSHI Карнуа Сковорода литая d20см, антипригарное покрытие Мрамор, индукция</t>
+  </si>
+  <si>
+    <t>846-560</t>
+  </si>
+  <si>
+    <t>SATOSHI Карнуа Сковорода литая d24см, антипригарное покрытие Мрамор, индукция</t>
+  </si>
+  <si>
+    <t>846-561</t>
+  </si>
+  <si>
+    <t>SATOSHI Карнуа Сковорода литая d26см, антипригарное покрытие Мрамор, индукция</t>
+  </si>
+  <si>
+    <t>Керамика</t>
+  </si>
+  <si>
+    <t>VETTA</t>
+  </si>
+  <si>
+    <t>SATOSHI</t>
+  </si>
+  <si>
+    <t>Новинки фарфора</t>
+  </si>
+  <si>
+    <t>Новинки к Новогодним праздникам</t>
+  </si>
+  <si>
+    <t>Новинки в категории "Посуда для приготовления"</t>
+  </si>
+  <si>
+    <t>Новинки столовой посуды из керамики</t>
+  </si>
+  <si>
+    <t>Волшебство</t>
+  </si>
+  <si>
+    <t>Боньер</t>
+  </si>
+  <si>
+    <t>Мозаика</t>
+  </si>
+  <si>
+    <t>Ранчо</t>
+  </si>
+  <si>
+    <t>Карнуа</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor Amet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -189,7 +345,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -215,7 +371,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,27 +746,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IA6"/>
+  <dimension ref="A1:IC24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="83.83203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="8" customWidth="1"/>
-    <col min="4" max="5" width="23.33203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="10" customWidth="1"/>
-    <col min="7" max="235" width="10.33203125" style="1"/>
-    <col min="236" max="16384" width="10.33203125" style="7"/>
+    <col min="2" max="2" width="74.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="8" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="10" customWidth="1"/>
+    <col min="9" max="237" width="10.33203125" style="1"/>
+    <col min="238" max="16384" width="10.33203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -615,19 +776,25 @@
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -635,39 +802,49 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11">
-        <v>44256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H2" s="11">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11">
-        <v>44257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H3" s="11">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -675,19 +852,25 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="11">
-        <v>44258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H4" s="11">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -695,39 +878,504 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="11">
-        <v>44259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H5" s="11">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="11">
-        <v>44260</v>
+      <c r="H6" s="11">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="11">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="11">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="11">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="11">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="11">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="11">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="11">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="11">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="11">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="11">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="11">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="11">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="11">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="11">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="11">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="11">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="11">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="11">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="H1:H24"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R#P</oddFooter>
